--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-26.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1668"/>
+  <dimension ref="A1:G1658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40931,10 +40931,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G1558" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1558" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1559">
@@ -40968,10 +40966,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="G1559" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1559" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1560">
@@ -41005,10 +41001,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G1560" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1560" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1561">
@@ -41042,10 +41036,8 @@
           <t>220.0K</t>
         </is>
       </c>
-      <c r="G1561" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1561" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1562">
@@ -41079,10 +41071,8 @@
           <t>-9.6</t>
         </is>
       </c>
-      <c r="G1562" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1562" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1563">
@@ -41116,10 +41106,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="G1563" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1563" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1564">
@@ -41153,10 +41141,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="G1564" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1564" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1565">
@@ -41190,10 +41176,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G1565" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1565" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1566">
@@ -41227,10 +41211,8 @@
           <t>1875.0K</t>
         </is>
       </c>
-      <c r="G1566" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1566" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1567">
@@ -41264,10 +41246,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="G1567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1567" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1568">
@@ -41297,10 +41277,8 @@
           <t>225.0K</t>
         </is>
       </c>
-      <c r="G1568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1568" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1569">
@@ -41326,10 +41304,8 @@
       </c>
       <c r="E1569" t="inlineStr"/>
       <c r="F1569" t="inlineStr"/>
-      <c r="G1569" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1569" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1570">
@@ -41355,10 +41331,8 @@
       </c>
       <c r="E1570" t="inlineStr"/>
       <c r="F1570" t="inlineStr"/>
-      <c r="G1570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1570" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1571">
@@ -41384,10 +41358,8 @@
       </c>
       <c r="E1571" t="inlineStr"/>
       <c r="F1571" t="inlineStr"/>
-      <c r="G1571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1571" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1572">
@@ -41413,10 +41385,8 @@
       </c>
       <c r="E1572" t="inlineStr"/>
       <c r="F1572" t="inlineStr"/>
-      <c r="G1572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1572" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1573">
@@ -41442,10 +41412,8 @@
       </c>
       <c r="E1573" t="inlineStr"/>
       <c r="F1573" t="inlineStr"/>
-      <c r="G1573" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1573" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1574">
@@ -41475,10 +41443,8 @@
           <t>147.76</t>
         </is>
       </c>
-      <c r="G1574" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1574" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1575">
@@ -41508,10 +41474,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G1575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1575" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1576">
@@ -41541,10 +41505,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G1576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1577">
@@ -41578,10 +41540,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="G1577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1577" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1578">
@@ -41611,10 +41571,8 @@
           <t>-0.3%</t>
         </is>
       </c>
-      <c r="G1578" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1578" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1579">
@@ -41644,10 +41602,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="G1579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1579" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1580">
@@ -41665,10 +41621,8 @@
       <c r="D1580" t="inlineStr"/>
       <c r="E1580" t="inlineStr"/>
       <c r="F1580" t="inlineStr"/>
-      <c r="G1580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1580" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1581">
@@ -41702,10 +41656,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="G1581" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1581" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1582">
@@ -41739,10 +41691,8 @@
           <t>77.8%</t>
         </is>
       </c>
-      <c r="G1582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1583">
@@ -41772,10 +41722,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="G1583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1584">
@@ -41809,10 +41757,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="G1584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1584" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1585">
@@ -41842,10 +41788,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="G1585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1585" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1586">
@@ -41879,10 +41823,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G1586" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1586" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1587">
@@ -41916,10 +41858,8 @@
           <t>40</t>
         </is>
       </c>
-      <c r="G1587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1587" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1588">
@@ -41953,10 +41893,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G1588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1589">
@@ -41986,10 +41924,8 @@
         </is>
       </c>
       <c r="F1589" t="inlineStr"/>
-      <c r="G1589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1590">
@@ -42015,10 +41951,8 @@
       </c>
       <c r="E1590" t="inlineStr"/>
       <c r="F1590" t="inlineStr"/>
-      <c r="G1590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1591">
@@ -42044,10 +41978,8 @@
       </c>
       <c r="E1591" t="inlineStr"/>
       <c r="F1591" t="inlineStr"/>
-      <c r="G1591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1592">
@@ -42073,10 +42005,8 @@
       </c>
       <c r="E1592" t="inlineStr"/>
       <c r="F1592" t="inlineStr"/>
-      <c r="G1592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1593">
@@ -42102,10 +42032,8 @@
       </c>
       <c r="E1593" t="inlineStr"/>
       <c r="F1593" t="inlineStr"/>
-      <c r="G1593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1594">
@@ -42123,10 +42051,8 @@
       <c r="D1594" t="inlineStr"/>
       <c r="E1594" t="inlineStr"/>
       <c r="F1594" t="inlineStr"/>
-      <c r="G1594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1595">
@@ -42144,10 +42070,8 @@
       <c r="D1595" t="inlineStr"/>
       <c r="E1595" t="inlineStr"/>
       <c r="F1595" t="inlineStr"/>
-      <c r="G1595" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1595" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1596">
@@ -42173,209 +42097,207 @@
       </c>
       <c r="E1596" t="inlineStr"/>
       <c r="F1596" t="inlineStr"/>
-      <c r="G1596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1596" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>Friday May 16 2025</t>
-        </is>
-      </c>
-      <c r="B1597" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1597" t="inlineStr">
+        <is>
+          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
+        </is>
+      </c>
       <c r="C1597" t="inlineStr"/>
-      <c r="D1597" t="inlineStr"/>
+      <c r="D1597" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="E1597" t="inlineStr"/>
-      <c r="F1597" t="inlineStr"/>
-      <c r="G1597" t="inlineStr"/>
+      <c r="F1597" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="G1597" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>Building Permits PrelAPR</t>
+          <t>Michigan Consumer Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1598" t="inlineStr"/>
       <c r="D1598" t="inlineStr">
         <is>
-          <t>1.467M</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="E1598" t="inlineStr">
         <is>
-          <t>1.450M</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F1598" t="inlineStr">
         <is>
-          <t>1.45M</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="G1598" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>Housing StartsAPR</t>
+          <t>Michigan Current Conditions PrelMAY</t>
         </is>
       </c>
       <c r="C1599" t="inlineStr"/>
       <c r="D1599" t="inlineStr">
         <is>
-          <t>1.324M</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>1.37M</t>
+          <t>59.6</t>
         </is>
       </c>
       <c r="F1599" t="inlineStr">
         <is>
-          <t>1.31M</t>
+          <t>59.5</t>
         </is>
       </c>
       <c r="G1599" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelAPR</t>
+          <t>Michigan Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1600" t="inlineStr"/>
       <c r="D1600" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>6.5%</t>
         </is>
       </c>
       <c r="E1600" t="inlineStr"/>
       <c r="F1600" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
         <is>
-          <t>Export Prices MoMAPR</t>
+          <t>Baker Hughes Oil Rig CountMAY/16</t>
         </is>
       </c>
       <c r="C1601" t="inlineStr"/>
       <c r="D1601" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E1601" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F1601" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="E1601" t="inlineStr"/>
+      <c r="F1601" t="inlineStr"/>
       <c r="G1601" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1602" t="inlineStr">
         <is>
-          <t>Housing Starts MoMAPR</t>
+          <t>Baker Hughes Total Rigs CountMAY/16</t>
         </is>
       </c>
       <c r="C1602" t="inlineStr"/>
       <c r="D1602" t="inlineStr">
         <is>
-          <t>-11.4%</t>
+          <t>578</t>
         </is>
       </c>
       <c r="E1602" t="inlineStr"/>
-      <c r="F1602" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="F1602" t="inlineStr"/>
       <c r="G1602" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>Import Prices MoMAPR</t>
+          <t>Net Long-term TIC FlowsMAR</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr"/>
       <c r="D1603" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>$112B</t>
         </is>
       </c>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1603" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+          <t>$44.2B</t>
+        </is>
+      </c>
+      <c r="F1603" t="inlineStr"/>
       <c r="G1603" t="inlineStr">
         <is>
           <t>2</t>
@@ -42385,26 +42307,22 @@
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>Export Prices YoYAPR</t>
+          <t>Foreign Bond InvestmentMAR</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr"/>
       <c r="D1604" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>$106.2B</t>
         </is>
       </c>
       <c r="E1604" t="inlineStr"/>
-      <c r="F1604" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="F1604" t="inlineStr"/>
       <c r="G1604" t="inlineStr">
         <is>
           <t>3</t>
@@ -42414,26 +42332,22 @@
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
-          <t>Import Prices YoYAPR</t>
+          <t>Overall Net Capital FlowsMAR</t>
         </is>
       </c>
       <c r="C1605" t="inlineStr"/>
       <c r="D1605" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>$284.7B</t>
         </is>
       </c>
       <c r="E1605" t="inlineStr"/>
-      <c r="F1605" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="F1605" t="inlineStr"/>
       <c r="G1605" t="inlineStr">
         <is>
           <t>3</t>
@@ -42443,64 +42357,28 @@
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1606" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelMAY</t>
-        </is>
-      </c>
+          <t>Sunday May 18 2025</t>
+        </is>
+      </c>
+      <c r="B1606" t="inlineStr"/>
       <c r="C1606" t="inlineStr"/>
-      <c r="D1606" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E1606" t="inlineStr">
-        <is>
-          <t>53.4</t>
-        </is>
-      </c>
-      <c r="F1606" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
-      <c r="G1606" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D1606" t="inlineStr"/>
+      <c r="E1606" t="inlineStr"/>
+      <c r="F1606" t="inlineStr"/>
+      <c r="G1606" t="inlineStr"/>
     </row>
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1607" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
-        </is>
-      </c>
+          <t>Monday May 19 2025</t>
+        </is>
+      </c>
+      <c r="B1607" t="inlineStr"/>
       <c r="C1607" t="inlineStr"/>
-      <c r="D1607" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="D1607" t="inlineStr"/>
       <c r="E1607" t="inlineStr"/>
-      <c r="F1607" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G1607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F1607" t="inlineStr"/>
+      <c r="G1607" t="inlineStr"/>
     </row>
     <row r="1608">
       <c r="A1608" t="inlineStr">
@@ -42510,23 +42388,23 @@
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelMAY</t>
+          <t>CB Leading Index MoMAPR</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr"/>
       <c r="D1608" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>-0.8%</t>
         </is>
       </c>
       <c r="F1608" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="G1608" t="inlineStr">
@@ -42538,30 +42416,22 @@
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelMAY</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr"/>
       <c r="D1609" t="inlineStr">
         <is>
-          <t>59.8</t>
-        </is>
-      </c>
-      <c r="E1609" t="inlineStr">
-        <is>
-          <t>59.6</t>
-        </is>
-      </c>
-      <c r="F1609" t="inlineStr">
-        <is>
-          <t>59.5</t>
-        </is>
-      </c>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="E1609" t="inlineStr"/>
+      <c r="F1609" t="inlineStr"/>
       <c r="G1609" t="inlineStr">
         <is>
           <t>3</t>
@@ -42571,26 +42441,22 @@
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelMAY</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr"/>
       <c r="D1610" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>4.105%</t>
         </is>
       </c>
       <c r="E1610" t="inlineStr"/>
-      <c r="F1610" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
+      <c r="F1610" t="inlineStr"/>
       <c r="G1610" t="inlineStr">
         <is>
           <t>3</t>
@@ -42600,43 +42466,31 @@
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1611" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/16</t>
-        </is>
-      </c>
+          <t>Tuesday May 20 2025</t>
+        </is>
+      </c>
+      <c r="B1611" t="inlineStr"/>
       <c r="C1611" t="inlineStr"/>
-      <c r="D1611" t="inlineStr">
-        <is>
-          <t>474</t>
-        </is>
-      </c>
+      <c r="D1611" t="inlineStr"/>
       <c r="E1611" t="inlineStr"/>
       <c r="F1611" t="inlineStr"/>
-      <c r="G1611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1611" t="inlineStr"/>
     </row>
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:55 AM</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/16</t>
+          <t>Redbook YoYMAY/17</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr"/>
       <c r="D1612" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>5.8%</t>
         </is>
       </c>
       <c r="E1612" t="inlineStr"/>
@@ -42650,25 +42504,21 @@
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsMAR</t>
+          <t>API Crude Oil Stock ChangeMAY/16</t>
         </is>
       </c>
       <c r="C1613" t="inlineStr"/>
       <c r="D1613" t="inlineStr">
         <is>
-          <t>$112B</t>
-        </is>
-      </c>
-      <c r="E1613" t="inlineStr">
-        <is>
-          <t>$44.2B</t>
-        </is>
-      </c>
+          <t>4.287M</t>
+        </is>
+      </c>
+      <c r="E1613" t="inlineStr"/>
       <c r="F1613" t="inlineStr"/>
       <c r="G1613" t="inlineStr">
         <is>
@@ -42679,102 +42529,110 @@
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1614" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAR</t>
-        </is>
-      </c>
+          <t>Wednesday May 21 2025</t>
+        </is>
+      </c>
+      <c r="B1614" t="inlineStr"/>
       <c r="C1614" t="inlineStr"/>
-      <c r="D1614" t="inlineStr">
-        <is>
-          <t>$106.2B</t>
-        </is>
-      </c>
+      <c r="D1614" t="inlineStr"/>
       <c r="E1614" t="inlineStr"/>
       <c r="F1614" t="inlineStr"/>
-      <c r="G1614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1614" t="inlineStr"/>
     </row>
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsMAR</t>
+          <t>MBA 30-Year Mortgage RateMAY/16</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr"/>
       <c r="D1615" t="inlineStr">
         <is>
-          <t>$284.7B</t>
+          <t>6.86%</t>
         </is>
       </c>
       <c r="E1615" t="inlineStr"/>
       <c r="F1615" t="inlineStr"/>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>Sunday May 18 2025</t>
-        </is>
-      </c>
-      <c r="B1616" t="inlineStr"/>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1616" t="inlineStr">
+        <is>
+          <t>MBA Mortgage ApplicationsMAY/16</t>
+        </is>
+      </c>
       <c r="C1616" t="inlineStr"/>
-      <c r="D1616" t="inlineStr"/>
+      <c r="D1616" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="E1616" t="inlineStr"/>
       <c r="F1616" t="inlineStr"/>
-      <c r="G1616" t="inlineStr"/>
+      <c r="G1616" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>Monday May 19 2025</t>
-        </is>
-      </c>
-      <c r="B1617" t="inlineStr"/>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1617" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Market IndexMAY/16</t>
+        </is>
+      </c>
       <c r="C1617" t="inlineStr"/>
-      <c r="D1617" t="inlineStr"/>
+      <c r="D1617" t="inlineStr">
+        <is>
+          <t>251.2</t>
+        </is>
+      </c>
       <c r="E1617" t="inlineStr"/>
       <c r="F1617" t="inlineStr"/>
-      <c r="G1617" t="inlineStr"/>
+      <c r="G1617" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMAPR</t>
+          <t>MBA Mortgage Refinance IndexMAY/16</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr"/>
       <c r="D1618" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>718.1</t>
         </is>
       </c>
       <c r="E1618" t="inlineStr"/>
-      <c r="F1618" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="F1618" t="inlineStr"/>
       <c r="G1618" t="inlineStr">
         <is>
           <t>3</t>
@@ -42784,18 +42642,18 @@
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>MBA Purchase IndexMAY/16</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr"/>
       <c r="D1619" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>166.5</t>
         </is>
       </c>
       <c r="E1619" t="inlineStr"/>
@@ -42809,56 +42667,68 @@
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>EIA Crude Oil Stocks ChangeMAY/16</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr"/>
       <c r="D1620" t="inlineStr">
         <is>
-          <t>4.105%</t>
+          <t>3.454M</t>
         </is>
       </c>
       <c r="E1620" t="inlineStr"/>
       <c r="F1620" t="inlineStr"/>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>Tuesday May 20 2025</t>
-        </is>
-      </c>
-      <c r="B1621" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1621" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Stocks ChangeMAY/16</t>
+        </is>
+      </c>
       <c r="C1621" t="inlineStr"/>
-      <c r="D1621" t="inlineStr"/>
+      <c r="D1621" t="inlineStr">
+        <is>
+          <t>-1.022M</t>
+        </is>
+      </c>
       <c r="E1621" t="inlineStr"/>
       <c r="F1621" t="inlineStr"/>
-      <c r="G1621" t="inlineStr"/>
+      <c r="G1621" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
         <is>
-          <t>Redbook YoYMAY/17</t>
+          <t>EIA Crude Oil Imports ChangeMAY/16</t>
         </is>
       </c>
       <c r="C1622" t="inlineStr"/>
       <c r="D1622" t="inlineStr">
         <is>
-          <t>5.8%</t>
+          <t>0.422M</t>
         </is>
       </c>
       <c r="E1622" t="inlineStr"/>
@@ -42872,81 +42742,93 @@
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAY/16</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAY/16</t>
         </is>
       </c>
       <c r="C1623" t="inlineStr"/>
       <c r="D1623" t="inlineStr">
         <is>
-          <t>4.287M</t>
+          <t>-1.069M</t>
         </is>
       </c>
       <c r="E1623" t="inlineStr"/>
       <c r="F1623" t="inlineStr"/>
       <c r="G1623" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>Wednesday May 21 2025</t>
-        </is>
-      </c>
-      <c r="B1624" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1624" t="inlineStr">
+        <is>
+          <t>EIA Distillate Fuel Production ChangeMAY/16</t>
+        </is>
+      </c>
       <c r="C1624" t="inlineStr"/>
-      <c r="D1624" t="inlineStr"/>
+      <c r="D1624" t="inlineStr">
+        <is>
+          <t>-0.069M</t>
+        </is>
+      </c>
       <c r="E1624" t="inlineStr"/>
       <c r="F1624" t="inlineStr"/>
-      <c r="G1624" t="inlineStr"/>
+      <c r="G1624" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1625" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAY/16</t>
+          <t>EIA Distillate Stocks ChangeMAY/16</t>
         </is>
       </c>
       <c r="C1625" t="inlineStr"/>
       <c r="D1625" t="inlineStr">
         <is>
-          <t>6.86%</t>
+          <t>-3.155M</t>
         </is>
       </c>
       <c r="E1625" t="inlineStr"/>
       <c r="F1625" t="inlineStr"/>
       <c r="G1625" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAY/16</t>
+          <t>EIA Gasoline Production ChangeMAY/16</t>
         </is>
       </c>
       <c r="C1626" t="inlineStr"/>
       <c r="D1626" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>-0.327M</t>
         </is>
       </c>
       <c r="E1626" t="inlineStr"/>
@@ -42960,18 +42842,18 @@
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAY/16</t>
+          <t>EIA Heating Oil Stocks ChangeMAY/16</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr"/>
       <c r="D1627" t="inlineStr">
         <is>
-          <t>251.2</t>
+          <t>0.292M</t>
         </is>
       </c>
       <c r="E1627" t="inlineStr"/>
@@ -42985,18 +42867,18 @@
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAY/16</t>
+          <t>EIA Refinery Crude Runs ChangeMAY/16</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr"/>
       <c r="D1628" t="inlineStr">
         <is>
-          <t>718.1</t>
+          <t>0.33M</t>
         </is>
       </c>
       <c r="E1628" t="inlineStr"/>
@@ -43010,18 +42892,18 @@
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAY/16</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1629" t="inlineStr"/>
       <c r="D1629" t="inlineStr">
         <is>
-          <t>166.5</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="E1629" t="inlineStr"/>
@@ -43035,122 +42917,122 @@
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/16</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1630" t="inlineStr"/>
       <c r="D1630" t="inlineStr">
         <is>
-          <t>3.454M</t>
+          <t>4.810%</t>
         </is>
       </c>
       <c r="E1630" t="inlineStr"/>
       <c r="F1630" t="inlineStr"/>
       <c r="G1630" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1631" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAY/16</t>
-        </is>
-      </c>
+          <t>Thursday May 22 2025</t>
+        </is>
+      </c>
+      <c r="B1631" t="inlineStr"/>
       <c r="C1631" t="inlineStr"/>
-      <c r="D1631" t="inlineStr">
-        <is>
-          <t>-1.022M</t>
-        </is>
-      </c>
+      <c r="D1631" t="inlineStr"/>
       <c r="E1631" t="inlineStr"/>
       <c r="F1631" t="inlineStr"/>
-      <c r="G1631" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1631" t="inlineStr"/>
     </row>
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeMAY/16</t>
+          <t>Chicago Fed National Activity IndexAPR</t>
         </is>
       </c>
       <c r="C1632" t="inlineStr"/>
       <c r="D1632" t="inlineStr">
         <is>
-          <t>0.422M</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="E1632" t="inlineStr"/>
-      <c r="F1632" t="inlineStr"/>
+      <c r="F1632" t="inlineStr">
+        <is>
+          <t>-0.2</t>
+        </is>
+      </c>
       <c r="G1632" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/16</t>
+          <t>Initial Jobless ClaimsMAY/17</t>
         </is>
       </c>
       <c r="C1633" t="inlineStr"/>
       <c r="D1633" t="inlineStr">
         <is>
-          <t>-1.069M</t>
+          <t>229K</t>
         </is>
       </c>
       <c r="E1633" t="inlineStr"/>
-      <c r="F1633" t="inlineStr"/>
+      <c r="F1633" t="inlineStr">
+        <is>
+          <t>231.0K</t>
+        </is>
+      </c>
       <c r="G1633" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1634">
       <c r="A1634" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1634" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/16</t>
+          <t>Continuing Jobless ClaimsMAY/10</t>
         </is>
       </c>
       <c r="C1634" t="inlineStr"/>
       <c r="D1634" t="inlineStr">
         <is>
-          <t>-0.069M</t>
+          <t>1881K</t>
         </is>
       </c>
       <c r="E1634" t="inlineStr"/>
-      <c r="F1634" t="inlineStr"/>
+      <c r="F1634" t="inlineStr">
+        <is>
+          <t>1885.0K</t>
+        </is>
+      </c>
       <c r="G1634" t="inlineStr">
         <is>
           <t>3</t>
@@ -43160,22 +43042,26 @@
     <row r="1635">
       <c r="A1635" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1635" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeMAY/16</t>
+          <t>Jobless Claims 4-week AverageMAY/17</t>
         </is>
       </c>
       <c r="C1635" t="inlineStr"/>
       <c r="D1635" t="inlineStr">
         <is>
-          <t>-3.155M</t>
+          <t>230.5K</t>
         </is>
       </c>
       <c r="E1635" t="inlineStr"/>
-      <c r="F1635" t="inlineStr"/>
+      <c r="F1635" t="inlineStr">
+        <is>
+          <t>231.0K</t>
+        </is>
+      </c>
       <c r="G1635" t="inlineStr">
         <is>
           <t>3</t>
@@ -43185,222 +43071,242 @@
     <row r="1636">
       <c r="A1636" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B1636" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeMAY/16</t>
+          <t>S&amp;P Global Composite PMI FlashMAY</t>
         </is>
       </c>
       <c r="C1636" t="inlineStr"/>
       <c r="D1636" t="inlineStr">
         <is>
-          <t>-0.327M</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="E1636" t="inlineStr"/>
-      <c r="F1636" t="inlineStr"/>
+      <c r="F1636" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="G1636" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1637">
       <c r="A1637" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B1637" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/16</t>
+          <t>S&amp;P Global Manufacturing PMI FlashMAY</t>
         </is>
       </c>
       <c r="C1637" t="inlineStr"/>
       <c r="D1637" t="inlineStr">
         <is>
-          <t>0.292M</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="E1637" t="inlineStr"/>
-      <c r="F1637" t="inlineStr"/>
+      <c r="F1637" t="inlineStr">
+        <is>
+          <t>50.3</t>
+        </is>
+      </c>
       <c r="G1637" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B1638" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/16</t>
+          <t>S&amp;P Global Services PMI FlashMAY</t>
         </is>
       </c>
       <c r="C1638" t="inlineStr"/>
       <c r="D1638" t="inlineStr">
         <is>
-          <t>0.33M</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="E1638" t="inlineStr"/>
-      <c r="F1638" t="inlineStr"/>
+      <c r="F1638" t="inlineStr">
+        <is>
+          <t>50.6</t>
+        </is>
+      </c>
       <c r="G1638" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Existing Home SalesAPR</t>
         </is>
       </c>
       <c r="C1639" t="inlineStr"/>
       <c r="D1639" t="inlineStr">
         <is>
-          <t>4.240%</t>
+          <t>4.02M</t>
         </is>
       </c>
       <c r="E1639" t="inlineStr"/>
-      <c r="F1639" t="inlineStr"/>
+      <c r="F1639" t="inlineStr">
+        <is>
+          <t>3.9M</t>
+        </is>
+      </c>
       <c r="G1639" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>Existing Home Sales MoMAPR</t>
         </is>
       </c>
       <c r="C1640" t="inlineStr"/>
       <c r="D1640" t="inlineStr">
         <is>
-          <t>4.810%</t>
+          <t>-5.9%</t>
         </is>
       </c>
       <c r="E1640" t="inlineStr"/>
-      <c r="F1640" t="inlineStr"/>
+      <c r="F1640" t="inlineStr">
+        <is>
+          <t>-3%</t>
+        </is>
+      </c>
       <c r="G1640" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>Thursday May 22 2025</t>
-        </is>
-      </c>
-      <c r="B1641" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1641" t="inlineStr">
+        <is>
+          <t>EIA Natural Gas Stocks ChangeMAY/16</t>
+        </is>
+      </c>
       <c r="C1641" t="inlineStr"/>
       <c r="D1641" t="inlineStr"/>
       <c r="E1641" t="inlineStr"/>
       <c r="F1641" t="inlineStr"/>
-      <c r="G1641" t="inlineStr"/>
+      <c r="G1641" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexAPR</t>
+          <t>Kansas Fed Composite IndexMAY</t>
         </is>
       </c>
       <c r="C1642" t="inlineStr"/>
       <c r="D1642" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="E1642" t="inlineStr"/>
       <c r="F1642" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="G1642" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1643">
       <c r="A1643" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsMAY/17</t>
+          <t>Kansas Fed Manufacturing IndexMAY</t>
         </is>
       </c>
       <c r="C1643" t="inlineStr"/>
       <c r="D1643" t="inlineStr">
         <is>
-          <t>229K</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="E1643" t="inlineStr"/>
       <c r="F1643" t="inlineStr">
         <is>
-          <t>231.0K</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="G1643" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1644">
       <c r="A1644" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1644" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsMAY/10</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1644" t="inlineStr"/>
-      <c r="D1644" t="inlineStr">
-        <is>
-          <t>1881K</t>
-        </is>
-      </c>
+      <c r="D1644" t="inlineStr"/>
       <c r="E1644" t="inlineStr"/>
-      <c r="F1644" t="inlineStr">
-        <is>
-          <t>1885.0K</t>
-        </is>
-      </c>
+      <c r="F1644" t="inlineStr"/>
       <c r="G1644" t="inlineStr">
         <is>
           <t>3</t>
@@ -43410,26 +43316,18 @@
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageMAY/17</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr"/>
-      <c r="D1645" t="inlineStr">
-        <is>
-          <t>230.5K</t>
-        </is>
-      </c>
+      <c r="D1645" t="inlineStr"/>
       <c r="E1645" t="inlineStr"/>
-      <c r="F1645" t="inlineStr">
-        <is>
-          <t>231.0K</t>
-        </is>
-      </c>
+      <c r="F1645" t="inlineStr"/>
       <c r="G1645" t="inlineStr">
         <is>
           <t>3</t>
@@ -43439,221 +43337,189 @@
     <row r="1646">
       <c r="A1646" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashMAY</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C1646" t="inlineStr"/>
       <c r="D1646" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>1.935%</t>
         </is>
       </c>
       <c r="E1646" t="inlineStr"/>
-      <c r="F1646" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
+      <c r="F1646" t="inlineStr"/>
       <c r="G1646" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1647">
       <c r="A1647" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1647" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashMAY</t>
+          <t>15-Year Mortgage RateMAY/22</t>
         </is>
       </c>
       <c r="C1647" t="inlineStr"/>
       <c r="D1647" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>5.92%</t>
         </is>
       </c>
       <c r="E1647" t="inlineStr"/>
-      <c r="F1647" t="inlineStr">
-        <is>
-          <t>50.3</t>
-        </is>
-      </c>
+      <c r="F1647" t="inlineStr"/>
       <c r="G1647" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1648">
       <c r="A1648" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1648" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashMAY</t>
+          <t>30-Year Mortgage RateMAY/22</t>
         </is>
       </c>
       <c r="C1648" t="inlineStr"/>
       <c r="D1648" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>6.81%</t>
         </is>
       </c>
       <c r="E1648" t="inlineStr"/>
-      <c r="F1648" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+      <c r="F1648" t="inlineStr"/>
       <c r="G1648" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1649">
       <c r="A1649" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1649" t="inlineStr">
         <is>
-          <t>Existing Home SalesAPR</t>
+          <t>Fed Balance SheetMAY/21</t>
         </is>
       </c>
       <c r="C1649" t="inlineStr"/>
       <c r="D1649" t="inlineStr">
         <is>
-          <t>4.02M</t>
+          <t>$6.71T</t>
         </is>
       </c>
       <c r="E1649" t="inlineStr"/>
-      <c r="F1649" t="inlineStr">
-        <is>
-          <t>3.9M</t>
-        </is>
-      </c>
+      <c r="F1649" t="inlineStr"/>
       <c r="G1649" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1650">
       <c r="A1650" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1650" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMAPR</t>
-        </is>
-      </c>
+          <t>Friday May 23 2025</t>
+        </is>
+      </c>
+      <c r="B1650" t="inlineStr"/>
       <c r="C1650" t="inlineStr"/>
-      <c r="D1650" t="inlineStr">
-        <is>
-          <t>-5.9%</t>
-        </is>
-      </c>
+      <c r="D1650" t="inlineStr"/>
       <c r="E1650" t="inlineStr"/>
-      <c r="F1650" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="G1650" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F1650" t="inlineStr"/>
+      <c r="G1650" t="inlineStr"/>
     </row>
     <row r="1651">
       <c r="A1651" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1651" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/16</t>
+          <t>New Home SalesAPR</t>
         </is>
       </c>
       <c r="C1651" t="inlineStr"/>
-      <c r="D1651" t="inlineStr"/>
+      <c r="D1651" t="inlineStr">
+        <is>
+          <t>0.724M</t>
+        </is>
+      </c>
       <c r="E1651" t="inlineStr"/>
-      <c r="F1651" t="inlineStr"/>
+      <c r="F1651" t="inlineStr">
+        <is>
+          <t>0.69M</t>
+        </is>
+      </c>
       <c r="G1651" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1652">
       <c r="A1652" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1652" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexMAY</t>
+          <t>New Home Sales MoMAPR</t>
         </is>
       </c>
       <c r="C1652" t="inlineStr"/>
       <c r="D1652" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="E1652" t="inlineStr"/>
       <c r="F1652" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-4.7%</t>
         </is>
       </c>
       <c r="G1652" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1653">
       <c r="A1653" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1653" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexMAY</t>
+          <t>Baker Hughes Oil Rig CountMAY/23</t>
         </is>
       </c>
       <c r="C1653" t="inlineStr"/>
-      <c r="D1653" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+      <c r="D1653" t="inlineStr"/>
       <c r="E1653" t="inlineStr"/>
-      <c r="F1653" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
+      <c r="F1653" t="inlineStr"/>
       <c r="G1653" t="inlineStr">
         <is>
           <t>3</t>
@@ -43663,12 +43529,12 @@
     <row r="1654">
       <c r="A1654" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1654" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Baker Hughes Total Rigs CountMAY/23</t>
         </is>
       </c>
       <c r="C1654" t="inlineStr"/>
@@ -43682,18 +43548,18 @@
       </c>
     </row>
     <row r="1655">
-      <c r="A1655" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A1655" t="inlineStr"/>
       <c r="B1655" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Building Permits FinalAPR</t>
         </is>
       </c>
       <c r="C1655" t="inlineStr"/>
-      <c r="D1655" t="inlineStr"/>
+      <c r="D1655" t="inlineStr">
+        <is>
+          <t>1.467M</t>
+        </is>
+      </c>
       <c r="E1655" t="inlineStr"/>
       <c r="F1655" t="inlineStr"/>
       <c r="G1655" t="inlineStr">
@@ -43703,20 +43569,16 @@
       </c>
     </row>
     <row r="1656">
-      <c r="A1656" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
+      <c r="A1656" t="inlineStr"/>
       <c r="B1656" t="inlineStr">
         <is>
-          <t>10-Year TIPS Auction</t>
+          <t>Building Permits MoM FinalAPR</t>
         </is>
       </c>
       <c r="C1656" t="inlineStr"/>
       <c r="D1656" t="inlineStr">
         <is>
-          <t>1.935%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E1656" t="inlineStr"/>
@@ -43730,258 +43592,28 @@
     <row r="1657">
       <c r="A1657" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1657" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAY/22</t>
-        </is>
-      </c>
+          <t>Sunday May 25 2025</t>
+        </is>
+      </c>
+      <c r="B1657" t="inlineStr"/>
       <c r="C1657" t="inlineStr"/>
-      <c r="D1657" t="inlineStr">
-        <is>
-          <t>5.92%</t>
-        </is>
-      </c>
+      <c r="D1657" t="inlineStr"/>
       <c r="E1657" t="inlineStr"/>
       <c r="F1657" t="inlineStr"/>
-      <c r="G1657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1657" t="inlineStr"/>
     </row>
     <row r="1658">
       <c r="A1658" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1658" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAY/22</t>
-        </is>
-      </c>
+          <t>Monday May 26 2025</t>
+        </is>
+      </c>
+      <c r="B1658" t="inlineStr"/>
       <c r="C1658" t="inlineStr"/>
-      <c r="D1658" t="inlineStr">
-        <is>
-          <t>6.81%</t>
-        </is>
-      </c>
+      <c r="D1658" t="inlineStr"/>
       <c r="E1658" t="inlineStr"/>
       <c r="F1658" t="inlineStr"/>
-      <c r="G1658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1659">
-      <c r="A1659" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1659" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/21</t>
-        </is>
-      </c>
-      <c r="C1659" t="inlineStr"/>
-      <c r="D1659" t="inlineStr">
-        <is>
-          <t>$6.71T</t>
-        </is>
-      </c>
-      <c r="E1659" t="inlineStr"/>
-      <c r="F1659" t="inlineStr"/>
-      <c r="G1659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1660">
-      <c r="A1660" t="inlineStr">
-        <is>
-          <t>Friday May 23 2025</t>
-        </is>
-      </c>
-      <c r="B1660" t="inlineStr"/>
-      <c r="C1660" t="inlineStr"/>
-      <c r="D1660" t="inlineStr"/>
-      <c r="E1660" t="inlineStr"/>
-      <c r="F1660" t="inlineStr"/>
-      <c r="G1660" t="inlineStr"/>
-    </row>
-    <row r="1661">
-      <c r="A1661" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1661" t="inlineStr">
-        <is>
-          <t>New Home SalesAPR</t>
-        </is>
-      </c>
-      <c r="C1661" t="inlineStr"/>
-      <c r="D1661" t="inlineStr">
-        <is>
-          <t>0.724M</t>
-        </is>
-      </c>
-      <c r="E1661" t="inlineStr"/>
-      <c r="F1661" t="inlineStr">
-        <is>
-          <t>0.69M</t>
-        </is>
-      </c>
-      <c r="G1661" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1662">
-      <c r="A1662" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1662" t="inlineStr">
-        <is>
-          <t>New Home Sales MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1662" t="inlineStr"/>
-      <c r="D1662" t="inlineStr">
-        <is>
-          <t>7.4%</t>
-        </is>
-      </c>
-      <c r="E1662" t="inlineStr"/>
-      <c r="F1662" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
-      <c r="G1662" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1663">
-      <c r="A1663" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1663" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/23</t>
-        </is>
-      </c>
-      <c r="C1663" t="inlineStr"/>
-      <c r="D1663" t="inlineStr"/>
-      <c r="E1663" t="inlineStr"/>
-      <c r="F1663" t="inlineStr"/>
-      <c r="G1663" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1664">
-      <c r="A1664" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1664" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/23</t>
-        </is>
-      </c>
-      <c r="C1664" t="inlineStr"/>
-      <c r="D1664" t="inlineStr"/>
-      <c r="E1664" t="inlineStr"/>
-      <c r="F1664" t="inlineStr"/>
-      <c r="G1664" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1665">
-      <c r="A1665" t="inlineStr"/>
-      <c r="B1665" t="inlineStr">
-        <is>
-          <t>Building Permits FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1665" t="inlineStr"/>
-      <c r="D1665" t="inlineStr">
-        <is>
-          <t>1.467M</t>
-        </is>
-      </c>
-      <c r="E1665" t="inlineStr"/>
-      <c r="F1665" t="inlineStr"/>
-      <c r="G1665" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1666">
-      <c r="A1666" t="inlineStr"/>
-      <c r="B1666" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1666" t="inlineStr"/>
-      <c r="D1666" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1666" t="inlineStr"/>
-      <c r="F1666" t="inlineStr"/>
-      <c r="G1666" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1667">
-      <c r="A1667" t="inlineStr">
-        <is>
-          <t>Sunday May 25 2025</t>
-        </is>
-      </c>
-      <c r="B1667" t="inlineStr"/>
-      <c r="C1667" t="inlineStr"/>
-      <c r="D1667" t="inlineStr"/>
-      <c r="E1667" t="inlineStr"/>
-      <c r="F1667" t="inlineStr"/>
-      <c r="G1667" t="inlineStr"/>
-    </row>
-    <row r="1668">
-      <c r="A1668" t="inlineStr">
-        <is>
-          <t>Monday May 26 2025</t>
-        </is>
-      </c>
-      <c r="B1668" t="inlineStr"/>
-      <c r="C1668" t="inlineStr"/>
-      <c r="D1668" t="inlineStr"/>
-      <c r="E1668" t="inlineStr"/>
-      <c r="F1668" t="inlineStr"/>
-      <c r="G1668" t="inlineStr"/>
+      <c r="G1658" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-26.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-26.xlsx
@@ -43020,7 +43020,11 @@
           <t>Baker Hughes Oil Rig CountMAY/16</t>
         </is>
       </c>
-      <c r="C1629" t="inlineStr"/>
+      <c r="C1629" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
       <c r="D1629" t="inlineStr">
         <is>
           <t>474</t>
@@ -43045,7 +43049,11 @@
           <t>Baker Hughes Total Rigs CountMAY/16</t>
         </is>
       </c>
-      <c r="C1630" t="inlineStr"/>
+      <c r="C1630" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
       <c r="D1630" t="inlineStr">
         <is>
           <t>578</t>
@@ -44669,7 +44677,11 @@
         </is>
       </c>
       <c r="C1697" t="inlineStr"/>
-      <c r="D1697" t="inlineStr"/>
+      <c r="D1697" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
       <c r="E1697" t="inlineStr"/>
       <c r="F1697" t="inlineStr"/>
       <c r="G1697" t="inlineStr">
@@ -44690,7 +44702,11 @@
         </is>
       </c>
       <c r="C1698" t="inlineStr"/>
-      <c r="D1698" t="inlineStr"/>
+      <c r="D1698" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
       <c r="E1698" t="inlineStr"/>
       <c r="F1698" t="inlineStr"/>
       <c r="G1698" t="inlineStr">

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-26.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-26.xlsx
@@ -43078,10 +43078,14 @@
           <t>Net Long-term TIC FlowsMAR</t>
         </is>
       </c>
-      <c r="C1631" t="inlineStr"/>
+      <c r="C1631" t="inlineStr">
+        <is>
+          <t>$161.8B</t>
+        </is>
+      </c>
       <c r="D1631" t="inlineStr">
         <is>
-          <t>$112B</t>
+          <t>$112.9B</t>
         </is>
       </c>
       <c r="E1631" t="inlineStr">
@@ -43107,7 +43111,11 @@
           <t>Foreign Bond InvestmentMAR</t>
         </is>
       </c>
-      <c r="C1632" t="inlineStr"/>
+      <c r="C1632" t="inlineStr">
+        <is>
+          <t>$123.3B</t>
+        </is>
+      </c>
       <c r="D1632" t="inlineStr">
         <is>
           <t>$106.2B</t>
@@ -43132,10 +43140,14 @@
           <t>Overall Net Capital FlowsMAR</t>
         </is>
       </c>
-      <c r="C1633" t="inlineStr"/>
+      <c r="C1633" t="inlineStr">
+        <is>
+          <t>$254.3B</t>
+        </is>
+      </c>
       <c r="D1633" t="inlineStr">
         <is>
-          <t>$284.7B</t>
+          <t>$248.9B</t>
         </is>
       </c>
       <c r="E1633" t="inlineStr"/>
